--- a/UI和原型/app工期.xlsx
+++ b/UI和原型/app工期.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27417"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoupeiyu/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoupeiyu/DaZiFang/UI和原型/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-34900" yWindow="-4500" windowWidth="24300" windowHeight="20380" tabRatio="500"/>
+    <workbookView xWindow="-27320" yWindow="-1720" windowWidth="24300" windowHeight="20380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -658,7 +658,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.2"/>

--- a/UI和原型/app工期.xlsx
+++ b/UI和原型/app工期.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27320" yWindow="-1720" windowWidth="24300" windowHeight="20380" tabRatio="500"/>
+    <workbookView xWindow="680" yWindow="460" windowWidth="24300" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
   <si>
     <t>模块</t>
     <rPh sb="0" eb="1">
@@ -275,13 +275,19 @@
   <si>
     <t>王焕</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中融盛旺上线</t>
+  </si>
+  <si>
+    <t>周培玉</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -323,6 +329,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val=".PingFang SC"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -348,7 +368,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -368,12 +388,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -657,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.2"/>
@@ -715,7 +743,7 @@
       <c r="C3" s="1">
         <v>24</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>9.2200000000000006</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -732,7 +760,7 @@
       <c r="C4" s="1">
         <v>4</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="5" t="s">
         <v>7</v>
       </c>
@@ -747,7 +775,7 @@
       <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
@@ -765,7 +793,7 @@
       <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>10.1</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -782,7 +810,7 @@
       <c r="C8" s="1">
         <v>6</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="5" t="s">
         <v>7</v>
       </c>
@@ -794,7 +822,7 @@
       <c r="C9" s="1">
         <v>8</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="5" t="s">
         <v>7</v>
       </c>
@@ -806,7 +834,7 @@
       <c r="C10" s="1">
         <v>14</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="5" t="s">
         <v>7</v>
       </c>
@@ -827,7 +855,7 @@
       <c r="C12" s="1">
         <v>5</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="7">
         <v>10.14</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -841,7 +869,7 @@
       <c r="C13" s="1">
         <v>6</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="5" t="s">
         <v>7</v>
       </c>
@@ -853,13 +881,13 @@
       <c r="C14" s="1">
         <v>12</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="8"/>
       <c r="E14" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -868,20 +896,20 @@
       <c r="C15" s="3">
         <v>5</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="3">
         <v>4</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="9" t="s">
         <v>44</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -889,40 +917,40 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="3">
         <v>4</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="3">
         <v>4</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="3">
         <v>4</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="5" t="s">
         <v>46</v>
       </c>
@@ -937,7 +965,7 @@
       <c r="C20" s="1">
         <v>4</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="5" t="s">
         <v>46</v>
       </c>
@@ -952,7 +980,7 @@
       <c r="C21" s="1">
         <v>4</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="5" t="s">
         <v>46</v>
       </c>
@@ -964,7 +992,7 @@
       <c r="C22" s="1">
         <v>6</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="7">
         <v>10.28</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -978,7 +1006,7 @@
       <c r="C23" s="1">
         <v>4</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="5" t="s">
         <v>46</v>
       </c>
@@ -993,7 +1021,7 @@
       <c r="C24" s="1">
         <v>16</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="5" t="s">
         <v>46</v>
       </c>
@@ -1008,7 +1036,7 @@
       <c r="C25" s="1">
         <v>4</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="7">
         <v>11.4</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -1022,7 +1050,7 @@
       <c r="C26" s="1">
         <v>6</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="1" t="s">
         <v>47</v>
       </c>
@@ -1034,7 +1062,7 @@
       <c r="C27" s="1">
         <v>4</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="5" t="s">
         <v>46</v>
       </c>
@@ -1049,7 +1077,7 @@
       <c r="C28" s="1">
         <v>4</v>
       </c>
-      <c r="D28" s="7"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="5" t="s">
         <v>46</v>
       </c>
@@ -1061,7 +1089,7 @@
       <c r="C29" s="2">
         <v>6</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="1" t="s">
         <v>47</v>
       </c>
@@ -1073,7 +1101,7 @@
       <c r="C30" s="1">
         <v>2</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="5" t="s">
         <v>46</v>
       </c>
@@ -1088,7 +1116,7 @@
       <c r="C31" s="1">
         <v>4</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -1102,7 +1130,7 @@
       <c r="C32" s="1">
         <v>6</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="1" t="s">
         <v>47</v>
       </c>
@@ -1114,7 +1142,7 @@
       <c r="C33" s="1">
         <v>2</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="8"/>
       <c r="E33" s="5" t="s">
         <v>46</v>
       </c>
@@ -1126,7 +1154,7 @@
       <c r="C34" s="1">
         <v>4</v>
       </c>
-      <c r="D34" s="7"/>
+      <c r="D34" s="8"/>
       <c r="E34" s="5" t="s">
         <v>46</v>
       </c>
@@ -1147,8 +1175,19 @@
     <row r="38" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D39" s="4"/>
+    <row r="39" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="11">
+        <v>4</v>
+      </c>
+      <c r="D39" s="12">
+        <v>11.14</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="40" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D40" s="4"/>

--- a/UI和原型/app工期.xlsx
+++ b/UI和原型/app工期.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoupeiyu/DaZiFang/UI和原型/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22905"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-27320" yWindow="-1720" windowWidth="24300" windowHeight="20380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="57">
   <si>
     <t>模块</t>
     <rPh sb="0" eb="1">
@@ -274,6 +269,42 @@
   </si>
   <si>
     <t>王焕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷脸认证和刷脸登录搭建页面，根据语音提示完成连续拍照六张然后调用后台接口实现认证和对比实现的登录功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄亚男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄亚男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换城市列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面搭建以及需要处理原来定位城市与后台返回的城市列表城市逻辑，实现定位城市与手动切换城市功能统一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2期功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷脸认证和刷脸登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的页面增加推荐APP给朋友功能，实现第三方分享，分享邀请码，在注册页面上增加一个文本输入框邀请码注册时输入邀请码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -348,7 +379,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -368,19 +399,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -435,7 +472,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -470,7 +507,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -647,7 +684,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -655,23 +692,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="97.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="21.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="97.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,7 +725,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="30" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -705,7 +742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -715,14 +752,14 @@
       <c r="C3" s="1">
         <v>24</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="7">
         <v>9.2200000000000006</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -732,12 +769,12 @@
       <c r="C4" s="1">
         <v>4</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -747,15 +784,15 @@
       <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="8"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -765,14 +802,14 @@
       <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="7">
         <v>10.1</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="30" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -782,42 +819,42 @@
       <c r="C8" s="1">
         <v>6</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="8"/>
       <c r="E8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="30" customHeight="1">
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="8"/>
       <c r="E9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="30" customHeight="1">
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="1">
         <v>14</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="8"/>
       <c r="E10" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="30" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="30" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -827,39 +864,39 @@
       <c r="C12" s="1">
         <v>5</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="7">
         <v>10.14</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="30" customHeight="1">
       <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="1">
         <v>6</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="1">
         <v>12</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="8"/>
       <c r="E14" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -868,66 +905,66 @@
       <c r="C15" s="3">
         <v>5</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="8"/>
       <c r="E15" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="8"/>
       <c r="B16" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="3">
         <v>4</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="9" t="s">
         <v>44</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="8"/>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="3">
         <v>4</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="7"/>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="8"/>
       <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="3">
         <v>4</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="7"/>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="8"/>
       <c r="B19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="3">
         <v>4</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -937,12 +974,12 @@
       <c r="C20" s="1">
         <v>4</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="30" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -952,38 +989,38 @@
       <c r="C21" s="1">
         <v>4</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="30" customHeight="1">
       <c r="B22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="1">
         <v>6</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="7">
         <v>10.28</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="30" customHeight="1">
       <c r="B23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="1">
         <v>4</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="30" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -993,12 +1030,12 @@
       <c r="C24" s="1">
         <v>16</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="30" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
@@ -1008,38 +1045,38 @@
       <c r="C25" s="1">
         <v>4</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="7">
         <v>11.4</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="30" customHeight="1">
       <c r="B26" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="1">
         <v>6</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="30" customHeight="1">
       <c r="B27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="1">
         <v>4</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="30" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -1049,36 +1086,36 @@
       <c r="C28" s="1">
         <v>4</v>
       </c>
-      <c r="D28" s="7"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="30" customHeight="1">
       <c r="B29" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="2">
         <v>6</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="8"/>
       <c r="E29" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="30" customHeight="1">
       <c r="B30" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="1">
         <v>2</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="8"/>
       <c r="E30" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="30" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -1088,80 +1125,131 @@
       <c r="C31" s="1">
         <v>4</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="30" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="1">
         <v>6</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="30" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="1">
         <v>2</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="8"/>
       <c r="E33" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="30" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="1">
         <v>4</v>
       </c>
-      <c r="D34" s="7"/>
+      <c r="D34" s="8"/>
       <c r="E34" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="30" customHeight="1">
+      <c r="A35" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="1">
+    <row r="36" spans="1:5" s="6" customFormat="1" ht="53" customHeight="1">
+      <c r="A36" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="10">
+        <v>32</v>
+      </c>
+      <c r="D36" s="10">
+        <v>10.3</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="6" customFormat="1" ht="38">
+      <c r="A37" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="10">
+        <v>8</v>
+      </c>
+      <c r="D37" s="10">
+        <v>10.15</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="6" customFormat="1" ht="53" customHeight="1">
+      <c r="A38" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="10">
+        <v>8</v>
+      </c>
+      <c r="D38" s="10">
+        <v>11.15</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" customHeight="1">
+      <c r="C39" s="1">
         <f>SUM(C2:C36)</f>
-        <v>217</v>
-      </c>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" customHeight="1">
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:5">
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" ht="30" customHeight="1">
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" customHeight="1"/>
+    <row r="44" spans="1:5" ht="30" customHeight="1"/>
+    <row r="45" spans="1:5" ht="30" customHeight="1"/>
+    <row r="46" spans="1:5" ht="30" customHeight="1"/>
+    <row r="47" spans="1:5" ht="30" customHeight="1"/>
+    <row r="48" spans="1:5" ht="30" customHeight="1"/>
+    <row r="49" ht="30" customHeight="1"/>
+    <row r="50" ht="30" customHeight="1"/>
+    <row r="51" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="D22:D24"/>
@@ -1176,5 +1264,10 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/UI和原型/app工期.xlsx
+++ b/UI和原型/app工期.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="680" yWindow="460" windowWidth="24300" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="740" yWindow="460" windowWidth="24300" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
   <si>
     <t>模块</t>
     <rPh sb="0" eb="1">
@@ -281,13 +281,22 @@
   </si>
   <si>
     <t>周培玉</t>
+  </si>
+  <si>
+    <t>记录用户的位置信息</t>
+  </si>
+  <si>
+    <t>11.16-11.17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥#,##0.00"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -343,6 +352,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -352,12 +367,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -368,7 +398,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -391,17 +421,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -686,7 +724,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.2"/>
@@ -743,7 +781,7 @@
       <c r="C3" s="1">
         <v>24</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="10">
         <v>9.2200000000000006</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -760,7 +798,7 @@
       <c r="C4" s="1">
         <v>4</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="5" t="s">
         <v>7</v>
       </c>
@@ -775,7 +813,7 @@
       <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="8"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
@@ -793,7 +831,7 @@
       <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="10">
         <v>10.1</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -810,7 +848,7 @@
       <c r="C8" s="1">
         <v>6</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="5" t="s">
         <v>7</v>
       </c>
@@ -822,7 +860,7 @@
       <c r="C9" s="1">
         <v>8</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="5" t="s">
         <v>7</v>
       </c>
@@ -834,7 +872,7 @@
       <c r="C10" s="1">
         <v>14</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="5" t="s">
         <v>7</v>
       </c>
@@ -855,7 +893,7 @@
       <c r="C12" s="1">
         <v>5</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="10">
         <v>10.14</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -869,7 +907,7 @@
       <c r="C13" s="1">
         <v>6</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="5" t="s">
         <v>7</v>
       </c>
@@ -881,13 +919,13 @@
       <c r="C14" s="1">
         <v>12</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -896,20 +934,20 @@
       <c r="C15" s="3">
         <v>5</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="3">
         <v>4</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="12" t="s">
         <v>44</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -917,40 +955,40 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8"/>
+      <c r="A17" s="11"/>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="3">
         <v>4</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="3">
         <v>4</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="3">
         <v>4</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="5" t="s">
         <v>46</v>
       </c>
@@ -965,7 +1003,7 @@
       <c r="C20" s="1">
         <v>4</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="5" t="s">
         <v>46</v>
       </c>
@@ -980,7 +1018,7 @@
       <c r="C21" s="1">
         <v>4</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="5" t="s">
         <v>46</v>
       </c>
@@ -992,7 +1030,7 @@
       <c r="C22" s="1">
         <v>6</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="10">
         <v>10.28</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -1006,7 +1044,7 @@
       <c r="C23" s="1">
         <v>4</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="5" t="s">
         <v>46</v>
       </c>
@@ -1021,7 +1059,7 @@
       <c r="C24" s="1">
         <v>16</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="5" t="s">
         <v>46</v>
       </c>
@@ -1036,7 +1074,7 @@
       <c r="C25" s="1">
         <v>4</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="10">
         <v>11.4</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -1050,7 +1088,7 @@
       <c r="C26" s="1">
         <v>6</v>
       </c>
-      <c r="D26" s="8"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="1" t="s">
         <v>47</v>
       </c>
@@ -1062,7 +1100,7 @@
       <c r="C27" s="1">
         <v>4</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="5" t="s">
         <v>46</v>
       </c>
@@ -1077,7 +1115,7 @@
       <c r="C28" s="1">
         <v>4</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="5" t="s">
         <v>46</v>
       </c>
@@ -1089,7 +1127,7 @@
       <c r="C29" s="2">
         <v>6</v>
       </c>
-      <c r="D29" s="8"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="1" t="s">
         <v>47</v>
       </c>
@@ -1101,7 +1139,7 @@
       <c r="C30" s="1">
         <v>2</v>
       </c>
-      <c r="D30" s="8"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="5" t="s">
         <v>46</v>
       </c>
@@ -1116,7 +1154,7 @@
       <c r="C31" s="1">
         <v>4</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="12" t="s">
         <v>45</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -1130,7 +1168,7 @@
       <c r="C32" s="1">
         <v>6</v>
       </c>
-      <c r="D32" s="8"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="1" t="s">
         <v>47</v>
       </c>
@@ -1142,7 +1180,7 @@
       <c r="C33" s="1">
         <v>2</v>
       </c>
-      <c r="D33" s="8"/>
+      <c r="D33" s="11"/>
       <c r="E33" s="5" t="s">
         <v>46</v>
       </c>
@@ -1154,7 +1192,7 @@
       <c r="C34" s="1">
         <v>4</v>
       </c>
-      <c r="D34" s="8"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="5" t="s">
         <v>46</v>
       </c>
@@ -1176,21 +1214,32 @@
       <c r="D38" s="4"/>
     </row>
     <row r="39" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="11">
-        <v>4</v>
-      </c>
-      <c r="D39" s="12">
+      <c r="C39" s="8">
+        <v>4</v>
+      </c>
+      <c r="D39" s="9">
         <v>11.14</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D40" s="4"/>
+    <row r="40" spans="2:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="8">
+        <v>12</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="41" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="42" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/UI和原型/app工期.xlsx
+++ b/UI和原型/app工期.xlsx
@@ -1,33 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhoupeiyu/DaZiFang/UI和原型/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22905"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="460" windowWidth="24300" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
   <si>
     <t>模块</t>
     <rPh sb="0" eb="1">
@@ -287,6 +282,34 @@
   </si>
   <si>
     <t>11.16-11.17</t>
+  </si>
+  <si>
+    <t>切换城市列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面搭建以及需要处理原来定位城市与后台返回的城市列表城市逻辑，实现定位城市与手动切换城市功能统一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄亚男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷脸认证和刷脸登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷脸认证和刷脸登录搭建页面，根据语音提示完成连续拍照六张然后调用后台接口实现认证和对比实现的登录功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的页面增加推荐APP给朋友功能，实现第三方分享，分享邀请码，在注册页面上增加一个文本输入框邀请码注册时输入邀请码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -398,7 +421,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -428,25 +451,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -501,7 +530,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
+        <a:latin typeface="DengXian Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -536,7 +565,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
+        <a:latin typeface="DengXian"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -713,7 +742,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -723,21 +752,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="B33" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="97.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="21.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="97.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="30" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -754,7 +783,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="30" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -771,7 +800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="30" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>41</v>
       </c>
@@ -781,14 +810,14 @@
       <c r="C3" s="1">
         <v>24</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="13">
         <v>9.2200000000000006</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -798,12 +827,12 @@
       <c r="C4" s="1">
         <v>4</v>
       </c>
-      <c r="D4" s="11"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>36</v>
       </c>
@@ -813,15 +842,15 @@
       <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="11"/>
+      <c r="D5" s="14"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
@@ -831,14 +860,14 @@
       <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="13">
         <v>10.1</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="30" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -848,42 +877,42 @@
       <c r="C8" s="1">
         <v>6</v>
       </c>
-      <c r="D8" s="11"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="30" customHeight="1">
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
       </c>
-      <c r="D9" s="11"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="30" customHeight="1">
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="1">
         <v>14</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="30" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="30" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -893,39 +922,39 @@
       <c r="C12" s="1">
         <v>5</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="13">
         <v>10.14</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="30" customHeight="1">
       <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="1">
         <v>6</v>
       </c>
-      <c r="D13" s="11"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="30" customHeight="1">
       <c r="B14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C14" s="1">
         <v>12</v>
       </c>
-      <c r="D14" s="11"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:5" ht="30" customHeight="1">
+      <c r="A15" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -934,66 +963,66 @@
       <c r="C15" s="3">
         <v>5</v>
       </c>
-      <c r="D15" s="11"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
+    <row r="16" spans="1:5" ht="30" customHeight="1">
+      <c r="A16" s="14"/>
       <c r="B16" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="3">
         <v>4</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="15" t="s">
         <v>44</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
+    <row r="17" spans="1:5" ht="30" customHeight="1">
+      <c r="A17" s="14"/>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="3">
         <v>4</v>
       </c>
-      <c r="D17" s="11"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
+    <row r="18" spans="1:5" ht="30" customHeight="1">
+      <c r="A18" s="14"/>
       <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="3">
         <v>4</v>
       </c>
-      <c r="D18" s="11"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
+    <row r="19" spans="1:5" ht="30" customHeight="1">
+      <c r="A19" s="14"/>
       <c r="B19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="3">
         <v>4</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -1003,12 +1032,12 @@
       <c r="C20" s="1">
         <v>4</v>
       </c>
-      <c r="D20" s="11"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="30" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -1018,38 +1047,38 @@
       <c r="C21" s="1">
         <v>4</v>
       </c>
-      <c r="D21" s="11"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="30" customHeight="1">
       <c r="B22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="1">
         <v>6</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="13">
         <v>10.28</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="30" customHeight="1">
       <c r="B23" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C23" s="1">
         <v>4</v>
       </c>
-      <c r="D23" s="11"/>
+      <c r="D23" s="14"/>
       <c r="E23" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="30" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
@@ -1059,12 +1088,12 @@
       <c r="C24" s="1">
         <v>16</v>
       </c>
-      <c r="D24" s="11"/>
+      <c r="D24" s="14"/>
       <c r="E24" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="30" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>17</v>
       </c>
@@ -1074,38 +1103,38 @@
       <c r="C25" s="1">
         <v>4</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="13">
         <v>11.4</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="30" customHeight="1">
       <c r="B26" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="1">
         <v>6</v>
       </c>
-      <c r="D26" s="11"/>
+      <c r="D26" s="14"/>
       <c r="E26" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="30" customHeight="1">
       <c r="B27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C27" s="1">
         <v>4</v>
       </c>
-      <c r="D27" s="11"/>
+      <c r="D27" s="14"/>
       <c r="E27" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="30" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>11</v>
       </c>
@@ -1115,36 +1144,36 @@
       <c r="C28" s="1">
         <v>4</v>
       </c>
-      <c r="D28" s="11"/>
+      <c r="D28" s="14"/>
       <c r="E28" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="30" customHeight="1">
       <c r="B29" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C29" s="2">
         <v>6</v>
       </c>
-      <c r="D29" s="11"/>
+      <c r="D29" s="14"/>
       <c r="E29" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="30" customHeight="1">
       <c r="B30" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="1">
         <v>2</v>
       </c>
-      <c r="D30" s="11"/>
+      <c r="D30" s="14"/>
       <c r="E30" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="30" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>12</v>
       </c>
@@ -1154,67 +1183,67 @@
       <c r="C31" s="1">
         <v>4</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" s="15" t="s">
         <v>45</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="30" customHeight="1">
       <c r="B32" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="1">
         <v>6</v>
       </c>
-      <c r="D32" s="11"/>
+      <c r="D32" s="14"/>
       <c r="E32" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="30" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="1">
         <v>2</v>
       </c>
-      <c r="D33" s="11"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="30" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="1">
         <v>4</v>
       </c>
-      <c r="D34" s="11"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="30" customHeight="1">
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="30" customHeight="1">
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="30" customHeight="1">
       <c r="C37" s="1">
         <f>SUM(C2:C36)</f>
         <v>217</v>
       </c>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="30" customHeight="1">
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="2:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="14" t="s">
+    <row r="39" spans="1:5" s="6" customFormat="1">
+      <c r="B39" s="12" t="s">
         <v>48</v>
       </c>
       <c r="C39" s="8">
@@ -1227,8 +1256,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="40" spans="2:5" s="7" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="13" t="s">
+    <row r="40" spans="1:5" s="7" customFormat="1" ht="30" customHeight="1">
+      <c r="B40" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C40" s="8">
@@ -1241,15 +1270,63 @@
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="30" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" spans="1:5" ht="30" customHeight="1"/>
+    <row r="42" spans="1:5" s="10" customFormat="1" ht="53" customHeight="1">
+      <c r="A42" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="16">
+        <v>8</v>
+      </c>
+      <c r="D42" s="16">
+        <v>10.15</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="10" customFormat="1" ht="67" customHeight="1">
+      <c r="A43" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="16">
+        <v>32</v>
+      </c>
+      <c r="D43" s="16">
+        <v>10.3</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="10" customFormat="1" ht="53" customHeight="1">
+      <c r="A44" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="16">
+        <v>8</v>
+      </c>
+      <c r="D44" s="16">
+        <v>11.15</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="30" customHeight="1"/>
+    <row r="46" spans="1:5" ht="30" customHeight="1"/>
+    <row r="47" spans="1:5" ht="30" customHeight="1"/>
+    <row r="48" spans="1:5" ht="30" customHeight="1"/>
+    <row r="49" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="D22:D24"/>
@@ -1264,5 +1341,10 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/UI和原型/app工期.xlsx
+++ b/UI和原型/app工期.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="22905"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14380" tabRatio="500"/>
+    <workbookView xWindow="1560" yWindow="0" windowWidth="25600" windowHeight="14620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
   <si>
     <t>模块</t>
     <rPh sb="0" eb="1">
@@ -309,6 +309,14 @@
   </si>
   <si>
     <t>我的页面增加推荐APP给朋友功能，实现第三方分享，分享邀请码，在注册页面上增加一个文本输入框邀请码注册时输入邀请码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享需求更改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分享出去的文案中增加二维码，为每个用户生成一个单独的二维码 配合H5实现分享二维码功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -319,7 +327,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="\¥#,##0.00;[Red]\¥#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -381,13 +389,25 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -414,14 +434,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -458,6 +484,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -466,15 +498,24 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="11">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -750,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B33" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0"/>
@@ -810,7 +851,7 @@
       <c r="C3" s="1">
         <v>24</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="15">
         <v>9.2200000000000006</v>
       </c>
       <c r="E3" s="5" t="s">
@@ -827,7 +868,7 @@
       <c r="C4" s="1">
         <v>4</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="16"/>
       <c r="E4" s="5" t="s">
         <v>7</v>
       </c>
@@ -842,7 +883,7 @@
       <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="5" t="s">
         <v>7</v>
       </c>
@@ -860,7 +901,7 @@
       <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="15">
         <v>10.1</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -877,7 +918,7 @@
       <c r="C8" s="1">
         <v>6</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="16"/>
       <c r="E8" s="5" t="s">
         <v>7</v>
       </c>
@@ -889,7 +930,7 @@
       <c r="C9" s="1">
         <v>8</v>
       </c>
-      <c r="D9" s="14"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="5" t="s">
         <v>7</v>
       </c>
@@ -901,7 +942,7 @@
       <c r="C10" s="1">
         <v>14</v>
       </c>
-      <c r="D10" s="14"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="5" t="s">
         <v>7</v>
       </c>
@@ -922,7 +963,7 @@
       <c r="C12" s="1">
         <v>5</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="15">
         <v>10.14</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -936,7 +977,7 @@
       <c r="C13" s="1">
         <v>6</v>
       </c>
-      <c r="D13" s="14"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="5" t="s">
         <v>7</v>
       </c>
@@ -948,13 +989,13 @@
       <c r="C14" s="1">
         <v>12</v>
       </c>
-      <c r="D14" s="14"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" customHeight="1">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -963,20 +1004,20 @@
       <c r="C15" s="3">
         <v>5</v>
       </c>
-      <c r="D15" s="14"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="30" customHeight="1">
-      <c r="A16" s="14"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C16" s="3">
         <v>4</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="17" t="s">
         <v>44</v>
       </c>
       <c r="E16" s="5" t="s">
@@ -984,40 +1025,40 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" customHeight="1">
-      <c r="A17" s="14"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C17" s="3">
         <v>4</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30" customHeight="1">
-      <c r="A18" s="14"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C18" s="3">
         <v>4</v>
       </c>
-      <c r="D18" s="14"/>
+      <c r="D18" s="16"/>
       <c r="E18" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30" customHeight="1">
-      <c r="A19" s="14"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="3">
         <v>4</v>
       </c>
-      <c r="D19" s="14"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="5" t="s">
         <v>46</v>
       </c>
@@ -1032,7 +1073,7 @@
       <c r="C20" s="1">
         <v>4</v>
       </c>
-      <c r="D20" s="14"/>
+      <c r="D20" s="16"/>
       <c r="E20" s="5" t="s">
         <v>46</v>
       </c>
@@ -1047,7 +1088,7 @@
       <c r="C21" s="1">
         <v>4</v>
       </c>
-      <c r="D21" s="14"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="5" t="s">
         <v>46</v>
       </c>
@@ -1059,7 +1100,7 @@
       <c r="C22" s="1">
         <v>6</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="15">
         <v>10.28</v>
       </c>
       <c r="E22" s="5" t="s">
@@ -1073,7 +1114,7 @@
       <c r="C23" s="1">
         <v>4</v>
       </c>
-      <c r="D23" s="14"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="5" t="s">
         <v>46</v>
       </c>
@@ -1088,7 +1129,7 @@
       <c r="C24" s="1">
         <v>16</v>
       </c>
-      <c r="D24" s="14"/>
+      <c r="D24" s="16"/>
       <c r="E24" s="5" t="s">
         <v>46</v>
       </c>
@@ -1103,7 +1144,7 @@
       <c r="C25" s="1">
         <v>4</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="15">
         <v>11.4</v>
       </c>
       <c r="E25" s="5" t="s">
@@ -1117,7 +1158,7 @@
       <c r="C26" s="1">
         <v>6</v>
       </c>
-      <c r="D26" s="14"/>
+      <c r="D26" s="16"/>
       <c r="E26" s="1" t="s">
         <v>47</v>
       </c>
@@ -1129,7 +1170,7 @@
       <c r="C27" s="1">
         <v>4</v>
       </c>
-      <c r="D27" s="14"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="5" t="s">
         <v>46</v>
       </c>
@@ -1144,7 +1185,7 @@
       <c r="C28" s="1">
         <v>4</v>
       </c>
-      <c r="D28" s="14"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="5" t="s">
         <v>46</v>
       </c>
@@ -1156,7 +1197,7 @@
       <c r="C29" s="2">
         <v>6</v>
       </c>
-      <c r="D29" s="14"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="1" t="s">
         <v>47</v>
       </c>
@@ -1168,7 +1209,7 @@
       <c r="C30" s="1">
         <v>2</v>
       </c>
-      <c r="D30" s="14"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="5" t="s">
         <v>46</v>
       </c>
@@ -1183,7 +1224,7 @@
       <c r="C31" s="1">
         <v>4</v>
       </c>
-      <c r="D31" s="15" t="s">
+      <c r="D31" s="17" t="s">
         <v>45</v>
       </c>
       <c r="E31" s="5" t="s">
@@ -1197,7 +1238,7 @@
       <c r="C32" s="1">
         <v>6</v>
       </c>
-      <c r="D32" s="14"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="1" t="s">
         <v>47</v>
       </c>
@@ -1209,7 +1250,7 @@
       <c r="C33" s="1">
         <v>2</v>
       </c>
-      <c r="D33" s="14"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="5" t="s">
         <v>46</v>
       </c>
@@ -1221,7 +1262,7 @@
       <c r="C34" s="1">
         <v>4</v>
       </c>
-      <c r="D34" s="14"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="5" t="s">
         <v>46</v>
       </c>
@@ -1272,61 +1313,84 @@
     </row>
     <row r="41" spans="1:5" ht="30" customHeight="1"/>
     <row r="42" spans="1:5" s="10" customFormat="1" ht="53" customHeight="1">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="16">
+      <c r="C42" s="13">
         <v>8</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D42" s="13">
         <v>10.15</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="13" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="10" customFormat="1" ht="67" customHeight="1">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C43" s="16">
+      <c r="C43" s="13">
         <v>32</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D43" s="13">
         <v>10.3</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="10" customFormat="1" ht="53" customHeight="1">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="16">
+      <c r="C44" s="13">
         <v>8</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="13">
         <v>11.15</v>
       </c>
-      <c r="E44" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="30" customHeight="1"/>
+      <c r="E44" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="14" customFormat="1" ht="53" customHeight="1">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+    </row>
     <row r="46" spans="1:5" ht="30" customHeight="1"/>
-    <row r="47" spans="1:5" ht="30" customHeight="1"/>
+    <row r="47" spans="1:5" s="19" customFormat="1" ht="53" customHeight="1">
+      <c r="A47" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="18">
+        <v>1</v>
+      </c>
+      <c r="D47" s="18">
+        <v>12.28</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="48" spans="1:5" ht="30" customHeight="1"/>
     <row r="49" ht="30" customHeight="1"/>
+    <row r="50" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="D22:D24"/>
@@ -1340,7 +1404,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
